--- a/schedule/College Club - Master Schedule 2025-2026.xlsx
+++ b/schedule/College Club - Master Schedule 2025-2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/299F8723705EC823/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/299f8723705ec823/Webmaster/methockey/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{D0173A96-1CFD-426C-A34C-94D18679A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF0EF0D-3AAD-4276-A10E-6580761261AC}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{D0173A96-1CFD-426C-A34C-94D18679A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDAF7325-4A16-4857-AE81-E84C142D80AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{B38F996A-E40E-418B-960B-C323855553E5}"/>
   </bookViews>
@@ -1034,6 +1034,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4462,7 +4466,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:P43"/>
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4735,14 +4739,14 @@
         <v>45947</v>
       </c>
       <c r="C6" s="9">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D6" s="6">
         <v>45947</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
-        <v>0.89583333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>123</v>
@@ -4761,14 +4765,14 @@
         <v>45947</v>
       </c>
       <c r="L6" s="9">
-        <v>0.83333333333333337</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="M6" s="6">
         <v>45947</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="2"/>
-        <v>0.89583333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
